--- a/water-fall/10_要件定義/50_タスク管理システム_非機能要件一覧_v1.0.xlsx
+++ b/water-fall/10_要件定義/50_タスク管理システム_非機能要件一覧_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\10_要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3804BBC5-0FBD-4EB8-B3E4-9DC20A4F380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95034A70-1E19-4746-ADC5-15F39A67C990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8274A964-4543-4038-856A-550D488370BD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{8274A964-4543-4038-856A-550D488370BD}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
       <t>ダイコウモク</t>
@@ -2419,6 +2415,10 @@
       <t>ハンイ</t>
     </rPh>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2562,12 +2562,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2581,6 +2575,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2893,9 +2893,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2905,58 +2902,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2965,7 +2944,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2978,7 +2957,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3019,6 +2998,27 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3282,19 +3282,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3302,17 +3302,17 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>45473</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3387,999 +3387,999 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="46" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>45473</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="H4" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>45473</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="H5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>45473</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>45473</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>45473</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="H8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>45473</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="H9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>45473</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="G10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>45473</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>45473</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+        <v>223</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>45473</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G13" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>45473</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>45473</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>45473</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="G16" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>45473</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>45473</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="H18" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>45473</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="G19" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>45473</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>45473</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
+      <c r="G21" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>45473</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="I22" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>45473</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="I23" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>45473</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="I24" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>45473</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
+      <c r="I25" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>45473</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
+      <c r="H26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>24</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>45473</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
+      <c r="G27" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>25</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>45473</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="H28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>26</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>45473</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
+      <c r="G29" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>27</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>45473</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
+      <c r="H30" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>28</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>45473</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
+      <c r="G31" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>29</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>45473</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="G32" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>30</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>45473</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
+      <c r="H33" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>31</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>45473</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="G34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>32</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>45473</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
+      <c r="G35" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>33</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>45473</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
+        <v>199</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="1"/>
     </row>
   </sheetData>
@@ -4423,148 +4423,148 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="5" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="40" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="14" t="s">
+    </row>
+    <row r="7" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="42"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="21"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="15" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14" t="s">
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="41"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="16" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="41"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="16" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="41"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="16" t="s">
+    <row r="12" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="42"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="21"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="15" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="40" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="14" t="s">
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="41"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="16" t="s">
+    <row r="15" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="42"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="15" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="14" t="s">
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="41"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="16" t="s">
+    <row r="18" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="42"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="21"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="15" t="s">
+    <row r="19" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4593,1583 +4593,1583 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="30" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="49.33203125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="8" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.88671875" style="29" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="29" customWidth="1"/>
-    <col min="16" max="16384" width="11.5546875" style="30"/>
+    <col min="1" max="1" width="2.33203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="49.33203125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="8" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.88671875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="22" customWidth="1"/>
+    <col min="16" max="16384" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="B2" s="22"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="33" t="s">
+      <c r="I3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="J3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="K3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="L3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="M3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="N3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="O3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="28" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="B4" s="34">
-        <v>1</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="G4" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="H4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="J4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="K4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="L4" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="27">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="34">
-        <v>2</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="F5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="E6" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="G6" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="K6" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="L6" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="M6" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="27">
+        <v>4</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-    </row>
-    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
-        <v>3</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="F7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="27">
+        <v>5</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="36" t="s">
+      <c r="E8" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="K8" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="L8" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="M8" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="27">
+        <v>6</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="34">
-        <v>4</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="I7" s="36" t="s">
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
+        <v>7</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="K10" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="L10" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="M10" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="27">
+        <v>8</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
-        <v>5</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H8" s="35" t="s">
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+    </row>
+    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="27">
+        <v>9</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="27">
+        <v>10</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
+        <v>11</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="27">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="27">
+        <v>13</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="2:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="27">
+        <v>14</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="2:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="27">
+        <v>15</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="27">
+        <v>16</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="27">
+        <v>17</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="27">
+        <v>18</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="27">
+        <v>19</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="2:15" ht="57" x14ac:dyDescent="0.25">
+      <c r="B23" s="27">
+        <v>20</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+    </row>
+    <row r="24" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="27">
+        <v>21</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+    </row>
+    <row r="25" spans="2:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="27">
+        <v>22</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="K25" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="L25" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="M25" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+    </row>
+    <row r="26" spans="2:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="27">
+        <v>23</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+    </row>
+    <row r="27" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="27">
+        <v>24</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+    </row>
+    <row r="28" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="27">
+        <v>25</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+    </row>
+    <row r="29" spans="2:15" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="27">
+        <v>26</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="M8" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
-        <v>6</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="36" t="s">
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+    </row>
+    <row r="30" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="27">
+        <v>27</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="K30" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="L30" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="M30" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="M9" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
-        <v>7</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37" t="s">
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+    </row>
+    <row r="31" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="27">
+        <v>28</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="L31" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="M31" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+    </row>
+    <row r="32" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="27">
+        <v>29</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
-        <v>8</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="36" t="s">
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+    </row>
+    <row r="33" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="27">
+        <v>30</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="K33" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="L33" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="M33" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="27">
+        <v>31</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="M11" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-    </row>
-    <row r="12" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
-        <v>9</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="36" t="s">
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+    </row>
+    <row r="35" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="27">
+        <v>32</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="K35" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="L35" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="M35" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
-        <v>10</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="36" t="s">
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+    </row>
+    <row r="36" spans="2:15" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="27">
+        <v>33</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="K36" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="L36" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="M36" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
-        <v>11</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-    </row>
-    <row r="15" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
-        <v>12</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-    </row>
-    <row r="16" spans="1:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
-        <v>13</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-    </row>
-    <row r="17" spans="2:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="34">
-        <v>14</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-    </row>
-    <row r="18" spans="2:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="34">
-        <v>15</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-    </row>
-    <row r="19" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="34">
-        <v>16</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="34">
-        <v>17</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-    </row>
-    <row r="21" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="34">
-        <v>18</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-    </row>
-    <row r="22" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="34">
-        <v>19</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-    </row>
-    <row r="23" spans="2:15" ht="57" x14ac:dyDescent="0.25">
-      <c r="B23" s="34">
-        <v>20</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-    </row>
-    <row r="24" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="34">
-        <v>21</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M24" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-    </row>
-    <row r="25" spans="2:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="34">
-        <v>22</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M25" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-    </row>
-    <row r="26" spans="2:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="34">
-        <v>23</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-    </row>
-    <row r="27" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="34">
-        <v>24</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L27" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-    </row>
-    <row r="28" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="34">
-        <v>25</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-    </row>
-    <row r="29" spans="2:15" ht="142.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="34">
-        <v>26</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M29" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-    </row>
-    <row r="30" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="34">
-        <v>27</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M30" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-    </row>
-    <row r="31" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="34">
-        <v>28</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="I31" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K31" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-    </row>
-    <row r="32" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="34">
-        <v>29</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L32" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M32" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-    </row>
-    <row r="33" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="34">
-        <v>30</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K33" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L33" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M33" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="34">
-        <v>31</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L34" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M34" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-    </row>
-    <row r="35" spans="2:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="34">
-        <v>32</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L35" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M35" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-    </row>
-    <row r="36" spans="2:15" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="34">
-        <v>33</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J36" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="L36" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="M36" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
     </row>
     <row r="37" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="45"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="45"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="45"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="45"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="45"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="45"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="45"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="38"/>
     </row>
     <row r="44" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="45"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="45"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="45"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="45"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="2:15" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="45"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="45"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="45"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="45"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="38"/>
     </row>
     <row r="52" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="45"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="38"/>
     </row>
     <row r="53" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="45"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="45"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="45"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="38"/>
     </row>
     <row r="56" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="45"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
